--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -12,7 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoses" sheetId="1" r:id="rId1"/>
+    <sheet name="Fluid" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoses materials" sheetId="1" r:id="rId2"/>
+    <sheet name="Miscellaneous" sheetId="7" r:id="rId3"/>
+    <sheet name="Raw materials" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet materials" sheetId="3" r:id="rId5"/>
+    <sheet name="Tubing" sheetId="6" r:id="rId6"/>
+    <sheet name="Temporary" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -51,6 +57,108 @@
   </si>
   <si>
     <t>Quantity (m)</t>
+  </si>
+  <si>
+    <t>http://www.blockenstock.fr/epaisseur-32mm-et-plus-c102x2963106</t>
+  </si>
+  <si>
+    <t>https://lemetal.fr/148-tole-plane-aluminium</t>
+  </si>
+  <si>
+    <t>Alu 7075 T6</t>
+  </si>
+  <si>
+    <t>Alu 7075</t>
+  </si>
+  <si>
+    <t>2017A</t>
+  </si>
+  <si>
+    <t>Epaisseur (mm)</t>
+  </si>
+  <si>
+    <t>largeur (mm)</t>
+  </si>
+  <si>
+    <t>longueur (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix </t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Diamètre (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longueur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Hauteur (mm)</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Rond plein</t>
+  </si>
+  <si>
+    <t>diamètre (mm)</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Alu 7075 T651</t>
+  </si>
+  <si>
+    <t>https://www.metalaladecoupe.com/francais/barres_rondes_5_50.asp?tbout=acier</t>
+  </si>
+  <si>
+    <t>https://rhmetal.fr/87-rond-acier-noir-s235</t>
+  </si>
+  <si>
+    <t>Acier S325JR</t>
+  </si>
+  <si>
+    <t>https://www.acier-detail-decoupe.fr/27-rond#/alliage-25cd4</t>
+  </si>
+  <si>
+    <t>Acier 25CD4</t>
+  </si>
+  <si>
+    <t>https://www.metalaladecoupe.com/francais/toles.asp?tbout=acier</t>
+  </si>
+  <si>
+    <t>Acier S235</t>
+  </si>
+  <si>
+    <t>Plaque</t>
+  </si>
+  <si>
+    <t>Fluid, demineralized water</t>
+  </si>
+  <si>
+    <t>Fluid, limited slip differential oil 75W140</t>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t>Price (for 1L)</t>
+  </si>
+  <si>
+    <t>Quantity (L)</t>
+  </si>
+  <si>
+    <t>Fluid, engine oil 10W40</t>
+  </si>
+  <si>
+    <t>Fluide, gasoline 98RON</t>
   </si>
 </sst>
 </file>
@@ -60,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +179,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,15 +209,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -381,10 +505,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D5" si="0">C2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24.65</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,4 +642,1280 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19.79</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4/(A4*B4*C4)</f>
+        <v>3.9579999999999997E-5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4/(PI()*G4^2*H4)</f>
+        <v>3.2722256299693677E-5</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>P4/(M4*N4*O4)</f>
+        <v>4.0624999999999998E-5</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="1">
+        <v>285.88</v>
+      </c>
+      <c r="W4" s="4">
+        <f>V4/(S4*T4*U4)</f>
+        <v>4.7646666666666666E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31.49</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E7" si="0">D5/(A5*B5*C5)</f>
+        <v>4.1986666666666662E-5</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>990</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17.13</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J11" si="1">I5/(PI()*G5^2*H5)</f>
+        <v>1.3769314015980641E-5</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>160</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q10" si="2">P5/(M5*N5*O5)</f>
+        <v>3.5859374999999996E-5</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>1000</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5" s="1">
+        <v>379.84</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:W6" si="3">V5/(S5*T5*U5)</f>
+        <v>4.7479999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>57.83</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8553333333333329E-5</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>990</v>
+      </c>
+      <c r="I6" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.388474154036446E-5</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>500</v>
+      </c>
+      <c r="P6" s="1">
+        <v>25.09</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1362499999999997E-5</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>1000</v>
+      </c>
+      <c r="U6">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="1">
+        <v>473.8</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7380000000000004E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>96.39</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8556000000000002E-5</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>990</v>
+      </c>
+      <c r="I7" s="1">
+        <v>34.28</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2246535239484113E-5</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+      <c r="P7" s="1">
+        <v>41.62</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3296000000000001E-5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="4">
+        <f>AVERAGE(W4:W6)</f>
+        <v>4.7502222222222225E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>550</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23.26</v>
+      </c>
+      <c r="E8" s="4">
+        <f>D8/(A8*B8*C8)</f>
+        <v>4.1299715909090912E-5</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10.92</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.357790608252732E-5</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6720000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.56</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E15" si="4">D9/(A9*B9*C9)</f>
+        <v>3.5694444444444444E-5</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0225705093654274E-5</v>
+      </c>
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="P9" s="1">
+        <v>57.83</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2127777777777776E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>550</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31.82</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6159090909090908E-5</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>800</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0867298457993479E-5</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>995</v>
+      </c>
+      <c r="P10" s="1">
+        <v>119.95</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.348687883863763E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>265</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1269654088050312E-5</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14.69</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2469259274773026E-5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>AVERAGE(Q4:Q10)</f>
+        <v>3.478250451663077E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21.85</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>3.7934027777777779E-5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4">
+        <f>AVERAGE(J4:J11)</f>
+        <v>1.4970377000558874E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5979999999999998E-5</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53.98</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5986666666666665E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" s="1">
+        <v>83.54</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3416E-5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <f>AVERAGE(E4:E15)</f>
+        <v>3.7201299982926756E-5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>500</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>P17/(PI()*(N17/2)^2*O17)</f>
+        <v>1.6399325336188895E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>500</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>P18/(PI()*(N18/2)^2*O18)</f>
+        <v>1.1459155902616463E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>500</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" ref="Q19:Q21" si="5">P19/(PI()*(N19/2)^2*O19)</f>
+        <v>5.432488724203361E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>500</v>
+      </c>
+      <c r="P20" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="5"/>
+        <v>4.9986441385898987E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ref="E21:E27" si="6">D21/(PI()*(B21/2)^2*C21)</f>
+        <v>1.3088902519877471E-4</v>
+      </c>
+      <c r="N21">
+        <v>22</v>
+      </c>
+      <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4195091635435405E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="6"/>
+        <v>5.3157750992693033E-5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>AVERAGE(Q17:Q21)</f>
+        <v>8.541824653028432E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>990</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17.13</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5077256063922563E-5</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="6"/>
+        <v>5.3414945380729545E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>990</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5538966161457841E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="6"/>
+        <v>4.5440504640992695E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27" s="1">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="6"/>
+        <v>3.338486055256606E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5">
+        <f>AVERAGE(E21:E27)</f>
+        <v>6.0986186998733781E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:E39" si="7">D33/(PI()*(B33/2)^2*C33)</f>
+        <v>2.6101410667070835E-4</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>300</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9.41</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" ref="K33:K36" si="8">J33/(PI()*(H33/2)^2*I33)</f>
+        <v>3.9937280386526271E-4</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" ref="R33:R36" si="9">Q33/(PI()*(O33/2)^2*P33)</f>
+        <v>2.9294456712851987E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="7"/>
+        <v>2.2132484273716698E-4</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="8"/>
+        <v>2.6144515130824893E-4</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>9.23</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="9"/>
+        <v>2.938000249476388E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>66.75</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1247184902768027E-4</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="8"/>
+        <v>2.4828171122335673E-4</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+      <c r="P35">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>14.44</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9416926441561197E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>251.5</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0013734093805838E-4</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>300</v>
+      </c>
+      <c r="J36" s="1">
+        <v>81.7</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="8"/>
+        <v>2.1671598084346415E-4</v>
+      </c>
+      <c r="O36">
+        <v>40</v>
+      </c>
+      <c r="P36">
+        <v>1000</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="9"/>
+        <v>2.7748664328071946E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>390</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9862536897868538E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="5">
+        <f>AVERAGE(K33:K36)</f>
+        <v>2.8145391181008314E-4</v>
+      </c>
+      <c r="O37">
+        <v>60</v>
+      </c>
+      <c r="P37">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>83.14</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" ref="R37:R38" si="10">Q37/(PI()*(O37/2)^2*P37)</f>
+        <v>2.9404759930355956E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>560</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9805948473658087E-4</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="5"/>
+      <c r="O38">
+        <v>80</v>
+      </c>
+      <c r="P38">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>139.55000000000001</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7762590385592491E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>992.5</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9745160127338264E-4</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="5"/>
+      <c r="Q39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="5">
+        <f>AVERAGE(R33:R38)</f>
+        <v>2.8834566715532905E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="5">
+        <f>AVERAGE(E33:E39)</f>
+        <v>2.1272637062318042E-4</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.5</v>
+      </c>
+      <c r="B46">
+        <v>1000</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="E46" s="4">
+        <f>D46/(A46*B46*C46)</f>
+        <v>2.3E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
+    <hyperlink ref="A43" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -159,14 +159,108 @@
   </si>
   <si>
     <t>Fluide, gasoline 98RON</t>
+  </si>
+  <si>
+    <t>Stainless tube, straight</t>
+  </si>
+  <si>
+    <t>Φ53 x 1,5</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Price (by unity)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Reference price</t>
+  </si>
+  <si>
+    <t>Bery inox</t>
+  </si>
+  <si>
+    <t>° (degrees)</t>
+  </si>
+  <si>
+    <t>Quantity (unity)</t>
+  </si>
+  <si>
+    <t>Φ48 x 1,3</t>
+  </si>
+  <si>
+    <t>Stainless tube, round, 55mm radius</t>
+  </si>
+  <si>
+    <t>Stainless tube, round, 93mm radius</t>
+  </si>
+  <si>
+    <t>Φ42,4 x 1,6</t>
+  </si>
+  <si>
+    <t>Stainless tube, round, 48mm radius</t>
+  </si>
+  <si>
+    <t>Φ51 x 1,2</t>
+  </si>
+  <si>
+    <t>Stainless tube, round, 75mm radius</t>
+  </si>
+  <si>
+    <t>Retours La Mache usinage</t>
+  </si>
+  <si>
+    <t>Volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Rond plein 2017A</t>
+  </si>
+  <si>
+    <t>Brut 2017A</t>
+  </si>
+  <si>
+    <t>Rond plein S355J2</t>
+  </si>
+  <si>
+    <t>Brut S235</t>
+  </si>
+  <si>
+    <t>Brut Alu 7075T6</t>
+  </si>
+  <si>
+    <t>Rond plein Alu 7075T6</t>
+  </si>
+  <si>
+    <t>Retours La Mache laser toles</t>
+  </si>
+  <si>
+    <t>S235</t>
+  </si>
+  <si>
+    <t>S355</t>
+  </si>
+  <si>
+    <t>S700</t>
+  </si>
+  <si>
+    <t>Prix (/kg)</t>
+  </si>
+  <si>
+    <t>AU4G A4</t>
+  </si>
+  <si>
+    <t>Densité (kg/mm^3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,7 +308,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -223,6 +317,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -507,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +683,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,25 +777,217 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6">
+        <f>C2*1.2</f>
+        <v>15.6</v>
+      </c>
+      <c r="G2" s="6">
+        <f>F2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C3/90</f>
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E7" si="0">C4/90</f>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G7" si="1">F4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -1906,6 +2193,272 @@
       <c r="E46" s="4">
         <f>D46/(A46*B46*C46)</f>
         <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>86.4</v>
+      </c>
+      <c r="C50">
+        <f>60*25*3020</f>
+        <v>4530000</v>
+      </c>
+      <c r="D50" s="4">
+        <f>B50/C50</f>
+        <v>1.9072847682119207E-5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I50" s="4">
+        <f>7770/(POWER(1000,3))</f>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J50" s="4">
+        <f>I50*H50</f>
+        <v>8.5470000000000013E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <f>PI()*10*10*12000</f>
+        <v>3769911.1843077517</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" ref="D51:D60" si="11">B51/C51</f>
+        <v>1.5915494309189534E-5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" ref="I51:I53" si="12">7770/(POWER(1000,3))</f>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" ref="J51:J53" si="13">I51*H51</f>
+        <v>1.9425000000000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28.32</v>
+      </c>
+      <c r="C52">
+        <f>PI()*17.5*17.5*3000</f>
+        <v>2886338.2504856223</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="11"/>
+        <v>9.8117398386121925E-6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="12"/>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="13"/>
+        <v>1.9425000000000001E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="C53">
+        <f>80*15*3000</f>
+        <v>3600000</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="11"/>
+        <v>9.8333333333333329E-6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="6">
+        <v>18</v>
+      </c>
+      <c r="I53" s="4">
+        <f>2700/(POWER(1000,3))</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="13"/>
+        <v>4.8600000000000002E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C54">
+        <f>70*20*6000</f>
+        <v>8400000</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="11"/>
+        <v>9.7142857142857135E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <f>30*30*100</f>
+        <v>90000</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" ref="D55" si="14">B55/C55</f>
+        <v>8.8888888888888893E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <f>140*50*285</f>
+        <v>1995000</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5062656641604011E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="C57">
+        <f>160*50*260</f>
+        <v>2080000</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="11"/>
+        <v>2.2211538461538464E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <f>PI()*65*65*103</f>
+        <v>1367142.5830259381</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0480672862977284E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C59">
+        <f>PI()*65*65*113</f>
+        <v>1499874.8726401068</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="11"/>
+        <v>2.380198551973887E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <f>PI()*10*10*2000</f>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0690142601946392E-5</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Dash 6</t>
   </si>
   <si>
-    <t>Price (for 1 m)</t>
-  </si>
-  <si>
     <t>Price (HT)</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>Fluid</t>
   </si>
   <si>
-    <t>Price (for 1L)</t>
-  </si>
-  <si>
-    <t>Quantity (L)</t>
-  </si>
-  <si>
     <t>Fluid, engine oil 10W40</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
     <t>Unity</t>
   </si>
   <si>
-    <t>Price (by unity)</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -252,6 +237,27 @@
   </si>
   <si>
     <t>Densité (kg/mm^3)</t>
+  </si>
+  <si>
+    <t>Price (by Unity)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Tripod grease</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Price (HT, for 1m)</t>
+  </si>
+  <si>
+    <t>Reverchon</t>
+  </si>
+  <si>
+    <t>Price (HT, by unity)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -308,7 +314,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -317,7 +323,13 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -600,75 +612,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>0.33</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D5" si="0">C2*B2</f>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2*B2/1.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>24.65</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E6" si="0">D3*B3/1.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1">
+        <f>48.68*1000/350</f>
+        <v>139.08571428571429</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -680,58 +725,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>30.3</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2*1.2</f>
-        <v>36.36</v>
-      </c>
-      <c r="F2" s="1">
-        <f>D2*E2</f>
+      <c r="E2" s="1">
+        <f>C2*D2</f>
         <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -780,14 +823,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -795,65 +838,65 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6">
-        <f>C2*1.2</f>
-        <v>15.6</v>
+        <f>C2</f>
+        <v>13</v>
       </c>
       <c r="G2" s="6">
         <f>F2*E2</f>
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6">
         <f>C3/90</f>
@@ -864,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E7" si="0">C4/90</f>
@@ -889,21 +932,21 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
@@ -914,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -939,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
@@ -964,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -991,21 +1034,21 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
       <c r="S2" s="3">
         <v>5754</v>
@@ -1013,64 +1056,64 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="V3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="W3" t="s">
         <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1309,7 +1352,7 @@
         <v>3.3296000000000001E-5</v>
       </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W7" s="4">
         <f>AVERAGE(W4:W6)</f>
@@ -1488,7 +1531,7 @@
         <v>1.2469259274773026E-5</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="4">
         <f>AVERAGE(Q4:Q10)</f>
@@ -1513,7 +1556,7 @@
         <v>3.7934027777777779E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4">
         <f>AVERAGE(J4:J11)</f>
@@ -1575,31 +1618,31 @@
         <v>3.3416E-5</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
         <f>AVERAGE(E4:E15)</f>
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
         <v>16</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1634,10 +1677,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -1655,16 +1698,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
       </c>
       <c r="N20">
         <v>18</v>
@@ -1723,7 +1766,7 @@
         <v>5.3157750992693033E-5</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="5">
         <f>AVERAGE(Q17:Q21)</f>
@@ -1808,7 +1851,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="5">
         <f>AVERAGE(E21:E27)</f>
@@ -1817,71 +1860,71 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" t="s">
-        <v>32</v>
-      </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" t="s">
         <v>16</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2063,7 +2106,7 @@
         <v>1.9862536897868538E-4</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K37" s="5">
         <f>AVERAGE(K33:K36)</f>
@@ -2130,7 +2173,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="5"/>
       <c r="Q39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R39" s="5">
         <f>AVERAGE(R33:R38)</f>
@@ -2139,7 +2182,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="5">
         <f>AVERAGE(E33:E39)</f>
@@ -2149,32 +2192,32 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -2197,10 +2240,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2208,30 +2251,30 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>86.4</v>
@@ -2245,7 +2288,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H50" s="6">
         <v>1.1000000000000001</v>
@@ -2261,7 +2304,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
         <v>60</v>
@@ -2275,13 +2318,13 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H51" s="6">
         <v>2.5</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" ref="I51:I53" si="12">7770/(POWER(1000,3))</f>
+        <f t="shared" ref="I51:I52" si="12">7770/(POWER(1000,3))</f>
         <v>7.7700000000000001E-6</v>
       </c>
       <c r="J51" s="4">
@@ -2291,7 +2334,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1">
         <v>28.32</v>
@@ -2305,7 +2348,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H52" s="6">
         <v>2.5</v>
@@ -2321,7 +2364,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1">
         <v>35.4</v>
@@ -2335,7 +2378,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H53" s="6">
         <v>18</v>
@@ -2351,7 +2394,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
         <v>81.599999999999994</v>
@@ -2367,7 +2410,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
         <v>8</v>
@@ -2383,7 +2426,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>50</v>
@@ -2399,7 +2442,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>46.2</v>
@@ -2415,7 +2458,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>28</v>
@@ -2431,7 +2474,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1">
         <v>35.700000000000003</v>
@@ -2447,7 +2490,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
         <v>13</v>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Price (HT, by unity)</t>
+  </si>
+  <si>
+    <t>Threadlock, medium</t>
+  </si>
+  <si>
+    <t>by utilisation</t>
+  </si>
+  <si>
+    <t>Fluid, chain oil</t>
+  </si>
+  <si>
+    <t>Maxxess (1 bottle = 40 utilisation)</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +637,7 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -641,58 +653,65 @@
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="1">
         <f>D2*B2/1.2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
-        <v>24.65</v>
+        <v>0.33</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">D3*B3/1.2</f>
+        <f>D3*B3/1.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
-        <v>16.559999999999999</v>
+        <v>24.65</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E8" si="0">D4*B4/1.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
-        <v>1.65</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>70</v>
@@ -702,18 +721,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <f>48.68*1000/350</f>
         <v>139.08571428571429</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1020,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Miscellaneous" sheetId="7" r:id="rId3"/>
     <sheet name="Raw materials" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet materials" sheetId="3" r:id="rId5"/>
-    <sheet name="Tubing" sheetId="6" r:id="rId6"/>
-    <sheet name="Temporary" sheetId="2" r:id="rId7"/>
+    <sheet name="Tubing" sheetId="8" r:id="rId6"/>
+    <sheet name="Plumbing" sheetId="6" r:id="rId7"/>
+    <sheet name="Temporary" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="117">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Price (HT)</t>
   </si>
   <si>
-    <t>Quantity (m)</t>
-  </si>
-  <si>
     <t>http://www.blockenstock.fr/epaisseur-32mm-et-plus-c102x2963106</t>
   </si>
   <si>
@@ -251,9 +249,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>Price (HT, for 1m)</t>
-  </si>
-  <si>
     <t>Reverchon</t>
   </si>
   <si>
@@ -270,14 +265,132 @@
   </si>
   <si>
     <t>Maxxess (1 bottle = 40 utilisation)</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Width (mm)</t>
+  </si>
+  <si>
+    <t>Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Price (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Aluminium, 2017A</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T6</t>
+  </si>
+  <si>
+    <t>Plastic, Delrin</t>
+  </si>
+  <si>
+    <t>Steel, 25CD4</t>
+  </si>
+  <si>
+    <t>Moyenne 2017A</t>
+  </si>
+  <si>
+    <t>Plastic Delrin</t>
+  </si>
+  <si>
+    <t>Prix (€/m^2)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://plastique-en-ligne.com/Plaques/POM-C</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) HT</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) (TTC)</t>
+  </si>
+  <si>
+    <t>Price (€/m^2)</t>
+  </si>
+  <si>
+    <t>Surface (m^2)</t>
+  </si>
+  <si>
+    <t>Steel, S235</t>
+  </si>
+  <si>
+    <t>Steel, S355</t>
+  </si>
+  <si>
+    <t>Steel, S700</t>
+  </si>
+  <si>
+    <t>Price (by unity)</t>
+  </si>
+  <si>
+    <t>Engine Sealant Paste</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>Price (€, HT)</t>
+  </si>
+  <si>
+    <t>Sealing paper</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Hose, Silicone</t>
+  </si>
+  <si>
+    <t>Hose, Silicone, 45°</t>
+  </si>
+  <si>
+    <t>for 1</t>
+  </si>
+  <si>
+    <t>Φ ext. 25 mm</t>
+  </si>
+  <si>
+    <t>Φ ext. 6 mm</t>
+  </si>
+  <si>
+    <t>Hose, Stainless</t>
+  </si>
+  <si>
+    <t>Φ ext. 12 mm</t>
+  </si>
+  <si>
+    <t>Φ ext. 26 mm</t>
+  </si>
+  <si>
+    <t>Hose, Silicone, 135°</t>
+  </si>
+  <si>
+    <t>Hose, rubber, flexible</t>
+  </si>
+  <si>
+    <t>Hose, FEP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -321,12 +434,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -342,9 +456,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Milliers" xfId="3" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -627,7 +747,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,16 +759,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -659,13 +779,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1">
@@ -673,18 +793,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>0.33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <f>D3*B3/1.2</f>
@@ -693,13 +813,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>24.65</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E8" si="0">D4*B4/1.2</f>
@@ -708,13 +828,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>16.559999999999999</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
@@ -723,13 +843,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>1.65</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
@@ -738,13 +858,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>0.48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -753,14 +873,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <f>48.68*1000/350</f>
         <v>139.08571428571429</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -774,19 +894,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -794,34 +916,192 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F9" si="0">D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
         <v>30.3</v>
       </c>
-      <c r="E2" s="1">
-        <f>C2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
+      <c r="F10" s="1">
+        <f>D10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -831,19 +1111,312 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1">
+        <f>10.68/(1.2*100)</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1">
+        <f>5.56/(0.235*0.335)</f>
+        <v>70.62559542711972</v>
+      </c>
+      <c r="E3" s="10">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.7494170995654369E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2*D2*C2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.2449399217561005E-5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F5" si="0">E3*D3*C3*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4">
+        <f>0.0000198/1.2</f>
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4">
+        <f>0.0000178345667155329/1.2</f>
+        <v>1.486213892961075E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>0.0000486*POWER(1000,3)*B2/1000</f>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E2" s="10">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C4" si="0">0.0000486*POWER(1000,3)*B3/1000</f>
+        <v>97.2</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E7" si="1">C3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>0.0000486*POWER(1000,3)*B4/1000</f>
+        <v>121.5</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <f>0.000008547*POWER(1000,3)*B5/1000</f>
+        <v>12.820499999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>0.000019425*POWER(1000,3)*B6/1000</f>
+        <v>58.274999999999999</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>0.000019425*POWER(1000,3)*B7/1000</f>
+        <v>77.7</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -855,24 +1428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,16 +1452,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>5</v>
@@ -911,16 +1472,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="6">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <f>C2</f>
@@ -931,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6">
         <f>C3/90</f>
@@ -956,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E7" si="0">C4/90</f>
@@ -981,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
@@ -1006,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="6">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -1031,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
@@ -1056,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1065,39 +1626,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
       </c>
       <c r="S2" s="3">
         <v>5754</v>
@@ -1105,64 +1666,64 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1401,7 +1962,7 @@
         <v>3.3296000000000001E-5</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7" s="4">
         <f>AVERAGE(W4:W6)</f>
@@ -1580,7 +2141,7 @@
         <v>1.2469259274773026E-5</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="4">
         <f>AVERAGE(Q4:Q10)</f>
@@ -1605,7 +2166,7 @@
         <v>3.7934027777777779E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="4">
         <f>AVERAGE(J4:J11)</f>
@@ -1667,31 +2228,31 @@
         <v>3.3416E-5</v>
       </c>
       <c r="M15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4">
         <f>AVERAGE(E4:E15)</f>
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
       <c r="Q16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1726,10 +2287,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -1747,16 +2308,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>18</v>
@@ -1815,7 +2376,7 @@
         <v>5.3157750992693033E-5</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="5">
         <f>AVERAGE(Q17:Q21)</f>
@@ -1900,7 +2461,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5">
         <f>AVERAGE(E21:E27)</f>
@@ -1909,71 +2470,71 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
         <v>23</v>
       </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" t="s">
         <v>23</v>
       </c>
-      <c r="P32" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>24</v>
-      </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2155,7 +2716,7 @@
         <v>1.9862536897868538E-4</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="5">
         <f>AVERAGE(K33:K36)</f>
@@ -2222,7 +2783,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="5"/>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R39" s="5">
         <f>AVERAGE(R33:R38)</f>
@@ -2231,7 +2792,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
         <f>AVERAGE(E33:E39)</f>
@@ -2241,32 +2802,32 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
         <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>13</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -2289,10 +2850,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2300,30 +2861,30 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
         <v>86.4</v>
@@ -2337,7 +2898,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="6">
         <v>1.1000000000000001</v>
@@ -2353,7 +2914,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>60</v>
@@ -2367,7 +2928,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51" s="6">
         <v>2.5</v>
@@ -2383,7 +2944,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
         <v>28.32</v>
@@ -2397,7 +2958,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="6">
         <v>2.5</v>
@@ -2413,7 +2974,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
         <v>35.4</v>
@@ -2427,7 +2988,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" s="6">
         <v>18</v>
@@ -2443,7 +3004,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>81.599999999999994</v>
@@ -2459,7 +3020,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>8</v>
@@ -2472,10 +3033,11 @@
         <f t="shared" ref="D55" si="14">B55/C55</f>
         <v>8.8888888888888893E-5</v>
       </c>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>50</v>
@@ -2491,7 +3053,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1">
         <v>46.2</v>
@@ -2507,7 +3069,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1">
         <v>28</v>
@@ -2523,7 +3085,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
         <v>35.700000000000003</v>
@@ -2539,7 +3101,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>13</v>
@@ -2551,6 +3113,144 @@
       <c r="D60" s="4">
         <f t="shared" si="11"/>
         <v>2.0690142601946392E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="4">
+        <f>AVERAGE(D51,D50)</f>
+        <v>1.7494170995654369E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="4">
+        <f>AVERAGE(D56:D60)</f>
+        <v>2.2449399217561005E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>2000</v>
+      </c>
+      <c r="D66">
+        <v>1284</v>
+      </c>
+      <c r="E66" s="1">
+        <f>D66*C66*B66/1000000</f>
+        <v>2568</v>
+      </c>
+      <c r="F66" s="4">
+        <f>E66/(A66*B66*C66)</f>
+        <v>1.605E-5</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67">
+        <v>2000</v>
+      </c>
+      <c r="D67">
+        <v>990</v>
+      </c>
+      <c r="E67" s="1">
+        <f>D67*C67*B67/1000000</f>
+        <v>1980</v>
+      </c>
+      <c r="F67" s="4">
+        <f>E67/(A67*B67*C67)</f>
+        <v>1.98E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>1000</v>
+      </c>
+      <c r="C68">
+        <v>2000</v>
+      </c>
+      <c r="D68">
+        <v>594</v>
+      </c>
+      <c r="E68" s="1">
+        <f>D68*C68*B68/1000000</f>
+        <v>1188</v>
+      </c>
+      <c r="F68" s="4">
+        <f>E68/(A68*B68*C68)</f>
+        <v>1.98E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>1000</v>
+      </c>
+      <c r="C69">
+        <v>2000</v>
+      </c>
+      <c r="D69">
+        <v>792</v>
+      </c>
+      <c r="E69" s="1">
+        <f>D69*C69*B69/1000000</f>
+        <v>1584</v>
+      </c>
+      <c r="F69" s="4">
+        <f>E69/(A69*B69*C69)</f>
+        <v>1.98E-5</v>
       </c>
     </row>
   </sheetData>
@@ -2560,6 +3260,7 @@
     <hyperlink ref="G30" r:id="rId3"/>
     <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
     <hyperlink ref="A43" r:id="rId5"/>
+    <hyperlink ref="G66" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -382,6 +382,45 @@
   </si>
   <si>
     <t>Hose, FEP</t>
+  </si>
+  <si>
+    <t>Price (by m)</t>
+  </si>
+  <si>
+    <t>Quantity (m)</t>
+  </si>
+  <si>
+    <t>Tubing, Aluminum, 2017A</t>
+  </si>
+  <si>
+    <t>Tubing, Steel</t>
+  </si>
+  <si>
+    <t>diam ext (mm)</t>
+  </si>
+  <si>
+    <t>diamètre int (mm)</t>
+  </si>
+  <si>
+    <t>https://www.acier-detail-decoupe.fr/45-aluminium#/alliage-2017a</t>
+  </si>
+  <si>
+    <t>Φ 10 * 9 mm</t>
+  </si>
+  <si>
+    <t>Prix volumique (€/mm^3) TTC</t>
+  </si>
+  <si>
+    <t>Prix (/m) TTC</t>
+  </si>
+  <si>
+    <t>http://www.blockenstock.fr/tube-6060-t6-c102x2607947</t>
+  </si>
+  <si>
+    <t>Φ 12 * 11 mm</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -896,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1318,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C4" si="0">0.0000486*POWER(1000,3)*B3/1000</f>
+        <f t="shared" ref="C3" si="0">0.0000486*POWER(1000,3)*B3/1000</f>
         <v>97.2</v>
       </c>
       <c r="E3" s="10">
@@ -1418,12 +1457,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="B9:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1">
+        <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
+        <v>3.1886956521739194</v>
+      </c>
+      <c r="E2" s="10">
+        <f>D2*C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1">
+        <f>0.000213682810551206*PI()*((12/2)*(12/2)-(11/2)*(11/2))*1000</f>
+        <v>3.8600000000000079</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E4" si="0">D3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1630,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,6 +1747,10 @@
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -2233,6 +2344,15 @@
       <c r="N15" t="s">
         <v>21</v>
       </c>
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
@@ -2254,8 +2374,20 @@
       <c r="Q16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" t="s">
+        <v>122</v>
+      </c>
+      <c r="U16" t="s">
+        <v>126</v>
+      </c>
+      <c r="V16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N17">
         <v>5</v>
       </c>
@@ -2269,8 +2401,21 @@
         <f>P17/(PI()*(N17/2)^2*O17)</f>
         <v>1.6399325336188895E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>40</v>
+      </c>
+      <c r="T17">
+        <v>30</v>
+      </c>
+      <c r="U17" s="1">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="V17" s="4">
+        <f>U17/(PI()*((S17/2)*(S17/2)-(T17/2)*(T17/2))*1000)</f>
+        <v>7.0974010050808657E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N18">
         <v>10</v>
       </c>
@@ -2284,8 +2429,21 @@
         <f>P18/(PI()*(N18/2)^2*O18)</f>
         <v>1.1459155902616463E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18" s="1">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="V18" s="4">
+        <f>U18/(PI()*((S18/2)*(S18/2)-(T18/2)*(T18/2))*1000)</f>
+        <v>5.7486765444792583E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2305,8 +2463,21 @@
         <f t="shared" ref="Q19:Q21" si="5">P19/(PI()*(N19/2)^2*O19)</f>
         <v>5.432488724203361E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
+      </c>
+      <c r="U19" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="V19" s="4">
+        <f>U19/(PI()*((S19/2)*(S19/2)-(T19/2)*(T19/2))*1000)</f>
+        <v>5.333458981835071E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -2332,8 +2503,21 @@
         <f t="shared" si="5"/>
         <v>4.9986441385898987E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <v>60</v>
+      </c>
+      <c r="T20">
+        <v>50</v>
+      </c>
+      <c r="U20" s="1">
+        <v>41.96</v>
+      </c>
+      <c r="V20" s="4">
+        <f>U20/(PI()*((S20/2)*(S20/2)-(T20/2)*(T20/2))*1000)</f>
+        <v>4.8568301179170389E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -2360,8 +2544,21 @@
         <f t="shared" si="5"/>
         <v>4.4195091635435405E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>60</v>
+      </c>
+      <c r="U21" s="1">
+        <v>330</v>
+      </c>
+      <c r="V21" s="4">
+        <f>U21/(PI()*((S21/2)*(S21/2)-(T21/2)*(T21/2))*1000)</f>
+        <v>6.5651414025406826E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2382,8 +2579,15 @@
         <f>AVERAGE(Q17:Q21)</f>
         <v>8.541824653028432E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="4">
+        <f>AVERAGE(V17:V21)</f>
+        <v>5.9203016103705834E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2398,8 +2602,14 @@
         <v>5.5077256063922563E-5</v>
       </c>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>6060</v>
+      </c>
+      <c r="T23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>25</v>
       </c>
@@ -2413,8 +2623,22 @@
         <f t="shared" si="6"/>
         <v>5.3414945380729545E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24" s="1">
+        <f>1.93*2</f>
+        <v>3.86</v>
+      </c>
+      <c r="V24" s="4">
+        <f>U24/(PI()*((S24/2)*(S24/2)-(T24/2)*(T24/2))*1000)</f>
+        <v>2.1368281055120556E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>25</v>
       </c>
@@ -2428,8 +2652,22 @@
         <f t="shared" si="6"/>
         <v>5.5538966161457841E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <v>46</v>
+      </c>
+      <c r="U25" s="1">
+        <f>11.26*2</f>
+        <v>22.52</v>
+      </c>
+      <c r="V25" s="4">
+        <f>U25/(PI()*((S25/2)*(S25/2)-(T25/2)*(T25/2))*1000)</f>
+        <v>7.4670194133947567E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>30</v>
       </c>
@@ -2443,8 +2681,10 @@
         <f t="shared" si="6"/>
         <v>4.5440504640992695E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>35</v>
       </c>
@@ -2458,8 +2698,10 @@
         <f t="shared" si="6"/>
         <v>3.338486055256606E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>20</v>
       </c>
@@ -2467,8 +2709,13 @@
         <f>AVERAGE(E21:E27)</f>
         <v>6.0986186998733781E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -2479,7 +2726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -3261,6 +3508,7 @@
     <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
     <hyperlink ref="A43" r:id="rId5"/>
     <hyperlink ref="G66" r:id="rId6"/>
+    <hyperlink ref="A30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="B9:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -785,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Φ34 x 1,5</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -500,6 +503,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -785,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1537,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,42 +1588,41 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
         <f>C2</f>
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12">
         <f>F2*E2</f>
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6">
-        <f>C3/90</f>
-        <v>0.1</v>
+        <f>C3</f>
+        <v>13</v>
       </c>
       <c r="G3" s="6">
         <f>F3*E3</f>
@@ -1632,98 +1637,145 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E7" si="0">C4/90</f>
-        <v>0.17777777777777778</v>
+        <f>C4/90</f>
+        <v>7.5555555555555556E-2</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G7" si="1">F4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
+        <f>F4*E4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="6">
+        <f>C5/90</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="6">
+        <f>F5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E9" si="0">C6/90</f>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G9" si="1">F6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0.18888888888888888</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1737,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Φ34 x 1,5</t>
+  </si>
+  <si>
+    <t>Thermal protection, adhesive</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1156,15 +1159,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
@@ -1221,6 +1224,22 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="135">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -426,7 +426,16 @@
     <t>Φ34 x 1,5</t>
   </si>
   <si>
-    <t>Thermal protection, adhesive</t>
+    <t>Glue, High temperature resistance</t>
+  </si>
+  <si>
+    <t>for fuel tank</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Fiberglass Insulation</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -509,6 +518,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -792,16 +802,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,7 +881,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E8" si="0">D4*B4/1.2</f>
+        <f t="shared" ref="E4:E9" si="0">D4*B4/1.2</f>
         <v>0</v>
       </c>
     </row>
@@ -906,31 +917,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1">
-        <v>0.48</v>
+        <f>27.9/3/1.2</f>
+        <v>7.7499999999999991</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B7</f>
+        <v>7.7499999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f>48.68*1000/350</f>
         <v>139.08571428571429</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1162,7 +1192,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,38 +1237,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="13">
+        <f>59/4/1.2</f>
+        <v>12.291666666666668</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="10">
+        <f>C3</f>
+        <v>12.291666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>5.56/(0.235*0.335)</f>
         <v>70.62559542711972</v>
       </c>
-      <c r="E3" s="10">
-        <f>C3*D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
+        <f>C4*D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E5" si="0">C5*D5</f>
         <v>0</v>
       </c>
     </row>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Fiberglass Insulation</t>
+  </si>
+  <si>
+    <t>Φ42,4 x 1,5</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1599,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,64 +1671,64 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6">
-        <f>C3</f>
-        <v>13</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="12">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="12">
         <f>F3*E3</f>
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6">
-        <f>C4/90</f>
-        <v>7.5555555555555556E-2</v>
-      </c>
-      <c r="G4" s="6">
+        <f>C4</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12">
         <f>F4*E4</f>
         <v>0</v>
       </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6">
-        <f>C5/90</f>
-        <v>0.1</v>
+        <f>C5</f>
+        <v>13</v>
       </c>
       <c r="G5" s="6">
         <f>F5*E5</f>
@@ -1740,98 +1743,145 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:E9" si="0">C6/90</f>
-        <v>0.17777777777777778</v>
+        <f>C6/90</f>
+        <v>7.5555555555555556E-2</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" ref="G6:G9" si="1">F6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
+        <f>F6*E6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="6">
+        <f>C7/90</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="6">
+        <f>F7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="6">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:E11" si="0">C8/90</f>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G11" si="1">F8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.18888888888888888</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C10" s="6">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
     </row>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -439,16 +439,23 @@
   </si>
   <si>
     <t>Φ42,4 x 1,5</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>cm²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -497,7 +504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -522,6 +529,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -805,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +892,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E9" si="0">D4*B4/1.2</f>
+        <f t="shared" ref="E4:E10" si="0">D4*B4/1.2</f>
         <v>0</v>
       </c>
     </row>
@@ -939,31 +947,47 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.48</v>
+        <v>136</v>
+      </c>
+      <c r="B8" s="14">
+        <f>23/(2.5*10000)</f>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>D8*B8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <f>48.68*1000/350</f>
         <v>139.08571428571429</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -978,7 +1002,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -1661,7 +1685,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="12">
-        <f>F2*E2</f>
+        <f t="shared" ref="G2:G7" si="0">F2*E2</f>
         <v>0</v>
       </c>
       <c r="H2" s="7"/>
@@ -1684,7 +1708,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="12">
-        <f>F3*E3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="7"/>
@@ -1708,7 +1732,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="12">
-        <f>F4*E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="7"/>
@@ -1731,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="6">
-        <f>F5*E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -1756,7 +1780,7 @@
         <v>7.5555555555555556E-2</v>
       </c>
       <c r="G6" s="6">
-        <f>F6*E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +1802,7 @@
         <v>0.1</v>
       </c>
       <c r="G7" s="6">
-        <f>F7*E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -1799,11 +1823,11 @@
         <v>44</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E11" si="0">C8/90</f>
+        <f t="shared" ref="E8:E11" si="1">C8/90</f>
         <v>0.17777777777777778</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G11" si="1">F8*E8</f>
+        <f t="shared" ref="G8:G11" si="2">F8*E8</f>
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -1824,11 +1848,11 @@
         <v>44</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -1849,11 +1873,11 @@
         <v>44</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -1874,11 +1898,11 @@
         <v>44</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" t="s">

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Steel, S700</t>
   </si>
   <si>
-    <t>Price (by unity)</t>
-  </si>
-  <si>
     <t>Engine Sealant Paste</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>m^2</t>
   </si>
   <si>
-    <t>Seal, O-ring, Elastomer</t>
-  </si>
-  <si>
     <t>Hose, Silicone</t>
   </si>
   <si>
@@ -445,6 +439,18 @@
   </si>
   <si>
     <t>cm²</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Copper</t>
+  </si>
+  <si>
+    <t>by O-ring</t>
+  </si>
+  <si>
+    <t>Seal, O-ring, Elastomer, 25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price (by unity) </t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,17 +934,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1">
         <f>27.9/3/1.2</f>
         <v>7.7499999999999991</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1">
         <f>B7</f>
@@ -947,18 +953,21 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="14">
         <f>23/(2.5*10000)</f>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
       </c>
       <c r="E8" s="1">
         <f>D8*B8</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,7 +1047,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1">
@@ -1051,10 +1060,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1073,10 +1082,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1094,10 +1103,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1115,13 +1124,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
         <v>8.25</v>
@@ -1136,13 +1145,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1">
         <v>7.5</v>
@@ -1154,10 +1163,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -1172,10 +1181,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1216,16 +1225,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,21 +1246,21 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
       </c>
       <c r="C2" s="1">
         <f>10.68/(1.2*100)</f>
@@ -1264,17 +1273,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="13">
         <f>59/4/1.2</f>
         <v>12.291666666666668</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" s="10">
         <f>C3</f>
@@ -1283,10 +1292,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="1">
         <f>5.56/(0.235*0.335)</f>
@@ -1299,11 +1308,39 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.56</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" s="10">
-        <f t="shared" ref="E5" si="0">C5*D5</f>
-        <v>0</v>
+        <f>C5*D5</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
+        <f>D6*C6</f>
+        <v>5.92</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1353,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,7 +1470,7 @@
         <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1566,21 +1603,21 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1">
         <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
@@ -1593,10 +1630,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1">
         <f>0.000213682810551206*PI()*((12/2)*(12/2)-(11/2)*(11/2))*1000</f>
@@ -1609,10 +1646,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
@@ -1629,7 +1666,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1671,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="6">
         <v>6.5</v>
@@ -1683,10 +1720,12 @@
         <f>C2</f>
         <v>6.5</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7">
+        <v>0.15</v>
+      </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G7" si="0">F2*E2</f>
-        <v>0</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -1695,7 +1734,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
@@ -1767,7 +1806,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6">
         <v>6.8</v>
@@ -2533,7 +2572,7 @@
         <v>21</v>
       </c>
       <c r="U15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2557,16 +2596,16 @@
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2788,7 +2827,7 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t xml:space="preserve">Price (by unity) </t>
+  </si>
+  <si>
+    <t>Φ ext. 8 mm</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -535,7 +538,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1010,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1052,15 @@
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.09</v>
+      </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F9" si="0">D2*E2</f>
         <v>0</v>
@@ -1443,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Φ ext. 8 mm</t>
+  </si>
+  <si>
+    <t>Φ 38 * 35 mm</t>
+  </si>
+  <si>
+    <t>Φ 6 * 5 mm</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1594,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,11 +1634,11 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1">
-        <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
-        <v>3.1886956521739194</v>
+        <f>0.000213682810551206*PI()*((6/2)*(6/2)-(5/2)*(5/2))*1000</f>
+        <v>1.8460869565217428</v>
       </c>
       <c r="E2" s="10">
         <f>D2*C2</f>
@@ -1644,25 +1650,54 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1">
+        <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
+        <v>3.1886956521739194</v>
+      </c>
+      <c r="E3" s="10">
+        <f>D3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>0.000213682810551206*PI()*((12/2)*(12/2)-(11/2)*(11/2))*1000</f>
         <v>3.8600000000000079</v>
       </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E4" si="0">D3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E6" si="0">D4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1">
+        <f>0.000213682810551206*PI()*((38/2)*(38/2)-(35/2)*(35/2))*1000/1.4</f>
+        <v>26.25279503105596</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="146">
   <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Densité (kg/mm^3)</t>
   </si>
   <si>
-    <t>Price (by Unity)</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>Tubing, Aluminum, 2017A</t>
   </si>
   <si>
-    <t>Tubing, Steel</t>
-  </si>
-  <si>
     <t>diam ext (mm)</t>
   </si>
   <si>
@@ -414,9 +408,6 @@
     <t>Φ 12 * 11 mm</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Φ34 x 1,5</t>
   </si>
   <si>
@@ -460,6 +451,24 @@
   </si>
   <si>
     <t>Φ 6 * 5 mm</t>
+  </si>
+  <si>
+    <t>RS components</t>
+  </si>
+  <si>
+    <t>PSEP industrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxxess  </t>
+  </si>
+  <si>
+    <t>Price (TTC, by Unity)</t>
+  </si>
+  <si>
+    <t>Hose, rubber, reinforced</t>
+  </si>
+  <si>
+    <t>Φ int. 35 mm</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +504,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,12 +521,186 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -519,7 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -529,22 +720,80 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -831,196 +1080,222 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20">
+        <f>D2*B2/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1">
-        <f>D2*B2/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9">
         <f>D3*B3/1.2</f>
         <v>0</v>
       </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>24.65</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E10" si="0">D4*B4/1.2</f>
         <v>0</v>
       </c>
+      <c r="F4" s="13" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>16.559999999999999</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F5" s="13" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>1.65</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="9">
         <f>27.9/3/1.2</f>
         <v>7.7499999999999991</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="9">
         <f>B7</f>
         <v>7.7499999999999991</v>
       </c>
+      <c r="F7" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="11">
         <f>23/(2.5*10000)</f>
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9">
         <f>D8*B8</f>
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="F9" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="15">
         <f>48.68*1000/350</f>
         <v>139.08571428571429</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,208 +1306,249 @@
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
+      <c r="G1" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="20">
         <v>9.09</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F9" si="0">D2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
+      <c r="E2" s="26"/>
+      <c r="F2" s="20">
+        <f t="shared" ref="F2:F10" si="0">D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <f>5/10</f>
         <v>0.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>72</v>
+      <c r="G3" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9">
+        <f>28/1.2</f>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G9" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D10" s="9">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.25</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G10" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D11" s="15">
         <v>30.3</v>
       </c>
-      <c r="F10" s="1">
-        <f>D10*E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1561,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,109 +1571,107 @@
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
+      <c r="E1" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <f>10.68/(1.2*100)</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="26"/>
+      <c r="E2" s="32">
         <f>C2*D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="29">
         <f>59/4/1.2</f>
         <v>12.291666666666668</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="30">
         <f>C3</f>
         <v>12.291666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <f>5.56/(0.235*0.335)</f>
         <v>70.62559542711972</v>
       </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8"/>
+      <c r="E4" s="30">
         <f>C4*D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="9">
         <f>0.56</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8"/>
+      <c r="E5" s="30">
         <f>C5*D5</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="15">
         <v>1.48</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="17"/>
+      <c r="E6" s="31">
         <f>D6*C6</f>
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1684,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,72 +1695,84 @@
     <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="37">
+        <v>1.7494170995654369E-5</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="38">
+        <f>E2*D2*C2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="4">
-        <v>1.7494170995654369E-5</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2*D2*C2*B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="33">
+        <v>2.2449399217561005E-5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="34">
+        <f t="shared" ref="F3:F5" si="0">E3*D3*C3*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4">
-        <v>2.2449399217561005E-5</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="0">E3*D3*C3*B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="33">
         <f>0.0000198/1.2</f>
         <v>1.6500000000000001E-5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="35">
         <f>0.0000178345667155329/1.2</f>
         <v>1.486213892961075E-5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1461,7 +1787,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,123 +1799,129 @@
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
+      <c r="E1" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="41">
         <v>1.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <f>0.0000486*POWER(1000,3)*B2/1000</f>
         <v>72.900000000000006</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="26"/>
+      <c r="E2" s="32">
         <f>C2*D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="39">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <f t="shared" ref="C3" si="0">0.0000486*POWER(1000,3)*B3/1000</f>
         <v>97.2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8"/>
+      <c r="E3" s="30">
         <f t="shared" ref="E3:E7" si="1">C3*D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="39">
         <v>2.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <f>0.0000486*POWER(1000,3)*B4/1000</f>
         <v>121.5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8"/>
+      <c r="E4" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="39">
         <v>1.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>0.000008547*POWER(1000,3)*B5/1000</f>
         <v>12.820499999999999</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8"/>
+      <c r="E5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="39">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f>0.000019425*POWER(1000,3)*B6/1000</f>
         <v>58.274999999999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="D6" s="8"/>
+      <c r="E6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="40">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <f>0.000019425*POWER(1000,3)*B7/1000</f>
         <v>77.7</v>
       </c>
-      <c r="E7" s="10">
+      <c r="D7" s="17"/>
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="11"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
@@ -1600,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,92 +1944,87 @@
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="20">
         <f>0.000213682810551206*PI()*((6/2)*(6/2)-(5/2)*(5/2))*1000</f>
         <v>1.8460869565217428</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="26"/>
+      <c r="E2" s="32">
         <f>D2*C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="9">
         <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
         <v>3.1886956521739194</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8"/>
+      <c r="E3" s="30">
         <f>D3*C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9">
         <f>0.000213682810551206*PI()*((12/2)*(12/2)-(11/2)*(11/2))*1000</f>
         <v>3.8600000000000079</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E6" si="0">D4*C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D4" s="8"/>
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:E5" si="0">D4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="15">
         <f>0.000213682810551206*PI()*((38/2)*(38/2)-(35/2)*(35/2))*1000/1.4</f>
         <v>26.25279503105596</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D5" s="17"/>
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1712,7 +2039,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1723,274 +2050,290 @@
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="54">
         <v>6.5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="55">
         <f>C2</f>
         <v>6.5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="56">
         <v>0.15</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="55">
         <f t="shared" ref="G2:G7" si="0">F2*E2</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="44">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="45">
         <v>10</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="12">
+      <c r="F3" s="43"/>
+      <c r="G3" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="44">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="44">
         <f>C4</f>
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12">
+      <c r="F4" s="43"/>
+      <c r="G4" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="44">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="44">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="42"/>
+      <c r="G5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="44">
         <v>6.8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="44">
         <f>C6/90</f>
         <v>7.5555555555555556E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="42"/>
+      <c r="G6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H6" s="47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="44">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="44">
         <f>C7/90</f>
         <v>0.1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="42"/>
+      <c r="G7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="44">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="44">
         <f t="shared" ref="E8:E11" si="1">C8/90</f>
         <v>0.17777777777777778</v>
       </c>
-      <c r="G8" s="6">
+      <c r="F8" s="42"/>
+      <c r="G8" s="44">
         <f t="shared" ref="G8:G11" si="2">F8*E8</f>
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="44">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="44">
         <f t="shared" si="1"/>
         <v>0.18888888888888888</v>
       </c>
-      <c r="G9" s="6">
+      <c r="F9" s="42"/>
+      <c r="G9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="44">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="44">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="F10" s="42"/>
+      <c r="G10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="50">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="50">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11" s="49"/>
+      <c r="G11" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2004,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="U15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2642,16 +2985,16 @@
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2873,7 +3216,7 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3048,7 +3391,7 @@
         <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -3381,7 +3724,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s">
         <v>1</v>
@@ -3632,7 +3975,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="4">
         <f>AVERAGE(D51,D50)</f>
@@ -3650,7 +3993,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3664,7 +4007,7 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -3673,7 +4016,7 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3698,7 +4041,7 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/CBOM/Materials_cost.xlsx
+++ b/CR - Cost Report/CBOM/Materials_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="4" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>Thickness (mm)</t>
   </si>
   <si>
-    <t>Price (€/mm^3)</t>
-  </si>
-  <si>
     <t>Aluminium, 2017A</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>Prix volumique (€/mm^3) (TTC)</t>
   </si>
   <si>
-    <t>Price (€/m^2)</t>
-  </si>
-  <si>
     <t>Surface (m^2)</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>Hose, FEP</t>
   </si>
   <si>
-    <t>Price (by m)</t>
-  </si>
-  <si>
     <t>Quantity (m)</t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t>Seal, O-ring, Elastomer, 25mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Price (by unity) </t>
-  </si>
-  <si>
     <t>Φ ext. 8 mm</t>
   </si>
   <si>
@@ -469,6 +457,18 @@
   </si>
   <si>
     <t>Φ int. 35 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price (HT, by unity) </t>
+  </si>
+  <si>
+    <t>Price (HT, €/m^2)</t>
+  </si>
+  <si>
+    <t>Price (HT, €/mm^3)</t>
+  </si>
+  <si>
+    <t>Price (HT, by m)</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>40</v>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1205,36 +1205,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="9">
         <f>27.9/3/1.2</f>
         <v>7.7499999999999991</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9">
         <f>B7</f>
         <v>7.7499999999999991</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="11">
         <f>23/(2.5*10000)</f>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G11" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1303,7 @@
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,15 +1326,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>41</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>41</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>41</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>41</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9">
         <v>8.25</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="9">
         <v>7.5</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>41</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>41</v>
@@ -1561,13 +1561,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1579,21 +1579,21 @@
         <v>40</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="20">
         <f>10.68/(1.2*100)</f>
@@ -1607,17 +1607,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" s="29">
         <f>59/4/1.2</f>
         <v>12.291666666666668</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E3" s="30">
         <f>C3</f>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9">
         <f>5.56/(0.235*0.335)</f>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="9">
         <f>0.56</f>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="15">
         <v>1.48</v>
@@ -1684,13 +1684,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
@@ -1700,7 +1700,7 @@
         <v>77</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>78</v>
@@ -1712,12 +1712,12 @@
         <v>80</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="37">
         <v>1.7494170995654369E-5</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="33">
         <v>2.2449399217561005E-5</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="33">
         <f>0.0000198/1.2</f>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="35">
         <f>0.0000178345667155329/1.2</f>
@@ -1787,14 +1787,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
@@ -1807,18 +1807,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="41">
         <v>1.5</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="39">
         <v>2</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="39">
         <v>2.5</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="39">
         <v>1.5</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="39">
         <v>3</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="40">
         <v>4</v>
@@ -1935,13 +1935,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1952,21 +1953,21 @@
         <v>3</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="20">
         <f>0.000213682810551206*PI()*((6/2)*(6/2)-(5/2)*(5/2))*1000</f>
@@ -1980,10 +1981,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9">
         <f>0.000213682810551206*PI()*((10/2)*(10/2)-(9/2)*(9/2))*1000</f>
@@ -1997,10 +1998,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="9">
         <f>0.000213682810551206*PI()*((12/2)*(12/2)-(11/2)*(11/2))*1000</f>
@@ -2014,10 +2015,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" s="15">
         <f>0.000213682810551206*PI()*((38/2)*(38/2)-(35/2)*(35/2))*1000/1.4</f>
@@ -2038,15 +2039,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2081,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="54">
         <v>6.5</v>
@@ -2109,7 +2110,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="44">
         <v>10</v>
@@ -2186,7 +2187,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="44">
         <v>6.8</v>
@@ -2347,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
@@ -2961,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="U15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2985,16 +2986,16 @@
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T16" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16" t="s">
+        <v>119</v>
+      </c>
+      <c r="V16" t="s">
         <v>118</v>
-      </c>
-      <c r="U16" t="s">
-        <v>122</v>
-      </c>
-      <c r="V16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -3216,7 +3217,7 @@
         <v>6060</v>
       </c>
       <c r="T23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3391,7 +3392,7 @@
         <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -3724,7 +3725,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
         <v>1</v>
@@ -3975,7 +3976,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="4">
         <f>AVERAGE(D51,D50)</f>
@@ -3993,7 +3994,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4007,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4016,7 +4017,7 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4041,7 +4042,7 @@
         <v>1.605E-5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
